--- a/Testdata/TC_63.xlsx
+++ b/Testdata/TC_63.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>ChoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlktLaaxuzDHSzI1SyDEmu47wUI3JssaY4Cjm0rLcUSJAiTVEUxaZIr+hTigLdLtoESHd7+Zdg7d0+9Rd65sLhRXK22i6MNefc5syZcx2jt27mgXFNotin4aOKXbMqBgld6vnh5aNKwi6q9m7lLQd1b1wSnOAIzwkDYgO4wvjgJvYfVWaMLQ5Mc7lc1paNGo0uzbpl2eY7g/7YnZE5rvphzHDokorm8l7PVXFQ25sPCMMeZlhyPqr0xr1am/huB2ADHOJLEtVaSeyHJI67IfOZT2LOGRHMSLsz+J48mFOv7dZsZK7BM8pW4geepCtQSriig23JxJ8Tp27Ze1Vrr9qwJ7Z9UG8c2Du13X3r3ZRRE6I+jtmYRNe+KwBjhucLwW7tNWzbrjfsHWRuJAJZmQEcNAy8Ebn2Y+K1SRDEW1nEVBfYdBmcejtjWsjM8SpBb67CUYQXs4nPArKdGqNBy5iHSpdMiIMOaURcsN8bqXRMlsNImXWy6AN2MvMjturg1dayTmMSDRfcSNuxOqhDQ9YMSMROF3DXxANXAITDooQg8x5kxtTxYxe+/TAhnnOBgzjPVECiMxpdxQvskmOIY5PLWIYBxR44HPNj5rtxJmANg04iugCRsHuLBt4hiFUqbkBo0b0QbMz3bVF6VZZeRCJxreKC4VLnmKXka3A0ntHlMAxW42Qau5E/JV6nlVJvxCEekYq7ncSMzkGLDIQkLAdZwT+IwDIYdYjrz3FwEoAVY6cBUgoA1EwYvfBZmwbJPNTmLEHRGZxoQm70CfUaDeF2Q250GvbClF6aeSOqyDCiS73nOkIYIQduxm7qZOuIMnEHYOn1rWPEjfBTHvoBFIj8XeSgRa8YzwhhG11CYhDPhYe85DitFd8TmRkEgWeCewPUsff3H1YtG34mlnUgfmBnjUbd0BMfUGB2q3adJ+2MLkWi42Q+nEIIX4szOTbgSiAEpwhaAQ6vAHrms9lxM9V+AwbJM99Lv45DEKyLAK8EWNslD0O90A0Sj8gc0AsvhFNy3RT1vXi0BupDWDsIh6vJasFzgXkPRYdc4CSA8sQgi1xmCaIERs34qkyTB6HTKEjv2OHFP4bq73rzmgv5kVe4mkvnHGBC0T0bIzNPz5O8S7rhZR+HlwmkUW3HMlx7GM8AkwiHMT+OzpolZ9tMhNJ7kdnckZc1TIQ7ycuigEVmiQ5NyHxBIxwMwDD+YRKKiqlKAlh4gNlMrSB6A+KmRjYzVs1V1CxV/HVkIgzlMXiKV9FdAgoifhbZZ+RCNQMifswB9aDU48CfRgUv24iDG8sKYOpv/HRbFsP0EqDZhATzXbLiHUi2UHDutI6dIsQKtUElZzx6sFffsRp1SN58jcSRRwQHRhfaUEaMXnhNYjYHtgNjRGLfgy8fBwfG22RKfIh6YSMVd1tz5/nQYUTeS6CdXglVmqBvEVIkgJR66Yc4WCfUmIzBOSc4ClY5QnnUPnWB7u5H/7r99dMXzz6/+/jxqy8/+M/ff/niHz+9ffIhfNz95a+3n/xCHlMSowmeBkQoNGnt7VmNB+BoGoRUfoAi7yUuE7Dzc1H09Rqp5lUs2t1e+6jfEglFA1N23k8kPBj6eEWTbDmWhxAbiSs1U0+QJM4kTVBqXcB2CK/0Mgp5n3pNitR5/H2M0hYvn3/+8vmf7uVWBivUnh1eU15fe2x7jU7XHt7/y/YunS4eVK2dar2eIy7RoBEMSdDNaTv1PKdhW/tWvWHZOpl72pE3EZVRStIEX5olPglq0yRk0Uq7QH6dIoXjTyBENFqGQm6hXPTLH7/68+MClbKughSlgHI0iaQ3melCiD4eTYzx8HTU7hqT7pj7SYbL0Unh30CsdtfxVHCqMExw8B0YjflgbFSg6asY9MIg2J0ZK4jEXBwWnG0TVG70hiLLWh5FNFnIG8kxZNANlDqbbOTYkGsETthzLelkqA3kUtfbv32xiUEdRLnZaegzPePlYaiAkaAcXkXtZ/988dVHL549u3v6s9uvfliQoPbRow/4OURTfqndHlKeqjclCDobC2NeWd/P1RcF5J3jCfVDFjv2rmga1QoBq82lid+oN4eSJwQLewG8BEFv47h7w1RgO8fILAJAzwWGakuz9loDZA7P7Prv3/z27ldf3H369NVHf7z9+A+3n3z68vnvXj35vYy6u8dP737yRGX5ciEQuvCmXXaBhhgBXYNHo8Frt/H1+z83QsoM6DmMRGSkr9//LCeMKyq6k0wy9HRakaIKa6R5Zs5n5FTROhT4NItsANq8hDU0hSpidOG72SbvVrkoHncC8a3epJrExKDQTn0bTlIkzpj/Vz7FIkvqyUOrbtcVVmrDjzDFcc70RwGdQpORIsSMVSIpcH0zQ0Yr9jvqD1vNfkYilRhGHoxkFh8U+QdKe0peUnpxutKTRQYBLDR+bhLwsXiNbB2lJefSmKnmy4umx9OfY1ligCvWxwIFjOhRJBuiUL1XjpMFdMPpK8T9ePE0k2uAj2Wvmm+Js3WvU8TDOoeFQlhEc4DAi9SkUDJN9WI+ysp29pibJlsCrvCcA+ZQT5Ky07qGvjIyed7pRhGNNiafDJOSDaCThoxiZhbXNOJOZdftZXeVAtKEpz/k6KdOSDskIGy79zoz4x7Q6zfmhbvflrUXDwNPGXO70UObJROQf7TkjvL/vllKZ2tGETRW/I1j60fGdHIdwcC7pTbyKIKRj4Cwu3oFPPSjmL3DM4H6kpBzDTmXHaogkR9ife7syzXgzbxws6BlGrlMvhzToO/P/S2nQisN76IQMOViITu43naOwivLMbmB/jInAXLi9AdQNfjEs5006a+QSjU/f6uJ/csZ21axh1NMPDK1qu6U1KsPPGuvuk9Io2rb8D9263XL2uEPPUo4JA6fLLfcxEwvLPuLjvNf7/yhVgoaAAA=</t>
+          <t>4hsAAB+LCAAAAAAAAAOlGVlvG8f5ryz41AIl96BEHRhvwEsOUVIUSKqK8lIMd4fiVMtdZndWEt9SIEGKNEVRFE6RnuhTigJ1jTYBUrvHfwks2X3qX+g3x14kFXdVg4Z3vmu++eY7x+itm4WnXZEwooH/qGLWjIpGfCdwqX/xqBKzWdVsVN6yUffGId4JDvGCMCDWgMuPDm8i+qgyZ2x5qOvX19e163otCC90yzBM/Z1Bf+zMyQJXqR8x7DukknK5b+aq2KjtLgaEYRczLDkfVXrjXq1NqNMB2AD7+IKEtVYcUZ9EUddnlFEScc6QYEbancH35MFsq9aomUjfgGeUrZh6rqQrUEq4ooNtyYQuiG0ZllE19qvWzsTYP7T2D81GbW9v792EMSVEfRyxMQmvqCMAY4YXS8Fu7Fs78HffbCB9KxHIygxgo6HnjsgVjYjbJp4XlbKIri6w6TA4dTljGkjP8SpBD1fhcYiX8wllHinLfhSExAFDPWjvY3I9DJX9Jss+YCdzGrJVB69KyzqNSDhccmuUY7VRJ/BZ0yMhO13CpRIX7hwQNgtjgvR7kBlTh0YOfFM/Jq49w16UZyog0VkQXkZL7JBjCFidy7j2vQC74FmMRow6USZgA4NOwmAJImH3VuC5RyBWqbgFkYru+WBjvm8rCC7XpReRSDiBcAe41AVmCfkGHI3nwfXQ91bjeBo5IZ0St9NKqLfiEA89xd2OIxYsQIsMhCQsB1nBHwi1dTDqEIcusHfigRUjuw5SCgDUjFkwo6wdePHCT825BkVncKIJuUlPmK7REG7X50YP/J6f0Eszb0UVGUbBdbrnJkIYIQduRk7iZJuIdeIOwJLr28SIG+GnPKIeVIL8XeSgRa8YzwlhW11CYhBPeke8ttitFd8T6RkEgWeCewMU0qbRqMLPMiaGcSh+sHOKRl3fzehMq1o3c3QJEh3Hi+EUQvhKnMk2AbcGQnAKr+Vh/xKgZ5TNj5uJ9lswSJ75XvpNHIJgXXp4JcCpXfIw1PMdL3aJzAE9fyackuumqO/Fow1QH8KapwAyw7EHZYZBkrjI4n8NjJrR5TpNHoROQy+5QpsX8QiquOMuag6kP16pak6w4AAdiufZGOl5ep7DHdL1L/rYv4ghS6ZmWoenDsQDfBJiP+LnSZPimi9tJ0KJ2WWytuVdDGPhLfIuAsAifY0OTchiGYTYG4Bh6FHsi8qnMj5YcoDZXK0gOD3i5KycsKZcRc0Sxd9EJqJMHoNncBW8a0BBxM8i+4VcJGZAxI85CFwo2dij07DgRFtxcGNZfUvciZ+uZK1LLgGaRsgf3yUr3klkCwWfrJbENhOEWKE2qGSPRzv71q5RtyA38zUSRx4R7GldaCcZ0Xr+FYnYAtgOtRGJqAtfFHuH2ttkSigEtbCRCqvS3Hk+dBSS92Joi1dClSboW4QUCSBjXlAfe5uEKSZjsM8JDr1VjlAetR84QHf3o3/d/vrZy+ef33385PWXH/zn7798+Y+f3j79ED7u/vLX209+IY8pidEETz0iFJq09veN+g44WgpC3Li6KO5u7DABOz8XNT1dI9WEikW722s/7rfAo3LAhJ23CzEPhj5eBXG2HMtDiI3EleqJJ0gSeyLkZesCtkN4IZdRyPvNK1KkzuPvY5S2ePXi81cv/nQvtzJYVjvMg4NdXjIM802lxTQ36NLSwvt42b2pKcHcqRq7VcvKEa/RoBEMO9CspXbquXbdNA4Mq26Yif4ASxx5G9E6Skma4At9jU+C2kHss3CVukB+nSCF408gRFK0DIXcQrnolz9+/ecnBSplXQUpSgHlgjiU3qQnCyH6eDTRxsPTUburTbpj7icZLkcnhX8Dsdo9jaeCU/l+jL3vwIjLB1ytAj1dRQtmGsHOXFtBJObisOBs26ByoweKXNfycRjES3kjOYYMuoUyzSZbObbkGoET9txIOhlqC7nU9fZvX2xjUAdRbnbqU2aPBi1t4ad+KWCogJGgHF5F7Wf/fPnVRy+fP7979rPbr35YkKD2SScb8HOIpvwydXtIearerEHQ2VgY89L4fq6+KCBvDE8C6rPI5jN5tkLAanJp4l/UW0DJE4KFvQC+BkFv46h7w1Rg28dILwJAzyWGahtk3XMKkDk8s+u/f/Pbu199cffps9cf/fH24z/cfvLpqxe/e/309zLq7p48u/vJU5Xl1wuB0IX35LIN1MSE52g8GjVeu7Wv3/+55gdMg55Di0VG+vr9z3LCuKKiO8kkQ0+XKlJUYYM0z8z5tJwqqQ4FvpRFNgBtXsLqKYUqYsGSOtkm71a5KB53AvGt3qQaR0QLoJ36NpykSJwx/698ikWW1JM9wzIthZXa8CNMcZQz/WMvmEKTkSDECLVGUuD6ZoaMVuz3uD9sNfsZiVRiGLowcRl8DuQfqBclXWU6LGQQwEKz58Qen3Q3yDZRKPnKpS5djYyzpstTnm0YhlkVv1yZK1DA1B2Gsgny1VvjOF5CB5w8LNyPF68tuab3WPan+TY4W/c6RTysc1gofkU0Bwi8SEcKJVNTL+LTqWxhj7lpsiXgCi80YA71nCi7qyvoJUOd55puGAbh1oSTYRKyAXTPkEX0zOIpjc63lJ22m91VAkiSXPrBe/U0FwYd4hFW+q0t4R4EVw/mhbsvy9qLhp6rjFlu3EjNkgnIPzhyRymrTDMMoW3iDxSlXwj71L/slTu9vdOwrLplHrg7O9P6bmPfqZMDhxBrb6/hThvgNVIoHz+5CD658Nmt3CbQLBbZs0F7BKN3SWnSwIKRD6NgKRGQKrGna3REw4i9w1OU+pKQ8xRyLltnQSI/xPqc6ys/1CO02ksvKJ2kFyafpgOvTxe05LhqJDmoKAS8YLmUrWXZ+4SSd0xuoPHNSYBkPf0BlDM+ipWTJoMKcnzKn8gax9PS4vSE+QTw3K8ext11oS17OLd456Xe/6GAaLweKqLnR/Rizsreq3VwUCcNYlWtmeNUd2BRhWI8rbp4dmAaxqzu7lr8fU4Jh+JAyXXJTXhJoRGMFeX59LX/qbP/C3lnxZLiGwAA</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="###0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -84,9 +84,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -382,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,47 +397,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2">
-        <v>3271.34</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>6384.48</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>7111.74</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>8354.02</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2">
-        <v>10540.67</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>16421.36</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>22352.63</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2">
-        <v>29205.22</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2">
+      <c r="A2" s="3">
         <v>37962.97</v>
       </c>
     </row>
@@ -444,4 +405,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>1</InitCol>
+          <EndRow>2</EndRow>
+          <EndCol>1</EndCol>
+          <Name>Real Estate Investment: Residential: Hebei</Name>
+          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
+          <SeriesId>310902301</SeriesId>
+          <Code>SR4825032</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2DB6270-FB91-42B4-88B9-90DA3794DCF8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_63.xlsx
+++ b/Testdata/TC_63.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>4hsAAB+LCAAAAAAAAAOlGVlvG8f5ryz41AIl96BEHRhvwEsOUVIUSKqK8lIMd4fiVMtdZndWEt9SIEGKNEVRFE6RnuhTigJ1jTYBUrvHfwks2X3qX+g3x14kFXdVg4Z3vmu++eY7x+itm4WnXZEwooH/qGLWjIpGfCdwqX/xqBKzWdVsVN6yUffGId4JDvGCMCDWgMuPDm8i+qgyZ2x5qOvX19e163otCC90yzBM/Z1Bf+zMyQJXqR8x7DukknK5b+aq2KjtLgaEYRczLDkfVXrjXq1NqNMB2AD7+IKEtVYcUZ9EUddnlFEScc6QYEbancH35MFsq9aomUjfgGeUrZh6rqQrUEq4ooNtyYQuiG0ZllE19qvWzsTYP7T2D81GbW9v792EMSVEfRyxMQmvqCMAY4YXS8Fu7Fs78HffbCB9KxHIygxgo6HnjsgVjYjbJp4XlbKIri6w6TA4dTljGkjP8SpBD1fhcYiX8wllHinLfhSExAFDPWjvY3I9DJX9Jss+YCdzGrJVB69KyzqNSDhccmuUY7VRJ/BZ0yMhO13CpRIX7hwQNgtjgvR7kBlTh0YOfFM/Jq49w16UZyog0VkQXkZL7JBjCFidy7j2vQC74FmMRow6USZgA4NOwmAJImH3VuC5RyBWqbgFkYru+WBjvm8rCC7XpReRSDiBcAe41AVmCfkGHI3nwfXQ91bjeBo5IZ0St9NKqLfiEA89xd2OIxYsQIsMhCQsB1nBHwi1dTDqEIcusHfigRUjuw5SCgDUjFkwo6wdePHCT825BkVncKIJuUlPmK7REG7X50YP/J6f0Eszb0UVGUbBdbrnJkIYIQduRk7iZJuIdeIOwJLr28SIG+GnPKIeVIL8XeSgRa8YzwlhW11CYhBPeke8ttitFd8T6RkEgWeCewMU0qbRqMLPMiaGcSh+sHOKRl3fzehMq1o3c3QJEh3Hi+EUQvhKnMk2AbcGQnAKr+Vh/xKgZ5TNj5uJ9lswSJ75XvpNHIJgXXp4JcCpXfIw1PMdL3aJzAE9fyackuumqO/Fow1QH8KapwAyw7EHZYZBkrjI4n8NjJrR5TpNHoROQy+5QpsX8QiquOMuag6kP16pak6w4AAdiufZGOl5ep7DHdL1L/rYv4ghS6ZmWoenDsQDfBJiP+LnSZPimi9tJ0KJ2WWytuVdDGPhLfIuAsAifY0OTchiGYTYG4Bh6FHsi8qnMj5YcoDZXK0gOD3i5KycsKZcRc0Sxd9EJqJMHoNncBW8a0BBxM8i+4VcJGZAxI85CFwo2dij07DgRFtxcGNZfUvciZ+uZK1LLgGaRsgf3yUr3klkCwWfrJbENhOEWKE2qGSPRzv71q5RtyA38zUSRx4R7GldaCcZ0Xr+FYnYAtgOtRGJqAtfFHuH2ttkSigEtbCRCqvS3Hk+dBSS92Joi1dClSboW4QUCSBjXlAfe5uEKSZjsM8JDr1VjlAetR84QHf3o3/d/vrZy+ef33385PWXH/zn7798+Y+f3j79ED7u/vLX209+IY8pidEETz0iFJq09veN+g44WgpC3Li6KO5u7DABOz8XNT1dI9WEikW722s/7rfAo3LAhJ23CzEPhj5eBXG2HMtDiI3EleqJJ0gSeyLkZesCtkN4IZdRyPvNK1KkzuPvY5S2ePXi81cv/nQvtzJYVjvMg4NdXjIM802lxTQ36NLSwvt42b2pKcHcqRq7VcvKEa/RoBEMO9CspXbquXbdNA4Mq26Yif4ASxx5G9E6Skma4At9jU+C2kHss3CVukB+nSCF408gRFK0DIXcQrnolz9+/ecnBSplXQUpSgHlgjiU3qQnCyH6eDTRxsPTUburTbpj7icZLkcnhX8Dsdo9jaeCU/l+jL3vwIjLB1ytAj1dRQtmGsHOXFtBJObisOBs26ByoweKXNfycRjES3kjOYYMuoUyzSZbObbkGoET9txIOhlqC7nU9fZvX2xjUAdRbnbqU2aPBi1t4ad+KWCogJGgHF5F7Wf/fPnVRy+fP7979rPbr35YkKD2SScb8HOIpvwydXtIearerEHQ2VgY89L4fq6+KCBvDE8C6rPI5jN5tkLAanJp4l/UW0DJE4KFvQC+BkFv46h7w1Rg28dILwJAzyWGahtk3XMKkDk8s+u/f/Pbu199cffps9cf/fH24z/cfvLpqxe/e/309zLq7p48u/vJU5Xl1wuB0IX35LIN1MSE52g8GjVeu7Wv3/+55gdMg55Di0VG+vr9z3LCuKKiO8kkQ0+XKlJUYYM0z8z5tJwqqQ4FvpRFNgBtXsLqKYUqYsGSOtkm71a5KB53AvGt3qQaR0QLoJ36NpykSJwx/698ikWW1JM9wzIthZXa8CNMcZQz/WMvmEKTkSDECLVGUuD6ZoaMVuz3uD9sNfsZiVRiGLowcRl8DuQfqBclXWU6LGQQwEKz58Qen3Q3yDZRKPnKpS5djYyzpstTnm0YhlkVv1yZK1DA1B2Gsgny1VvjOF5CB5w8LNyPF68tuab3WPan+TY4W/c6RTysc1gofkU0Bwi8SEcKJVNTL+LTqWxhj7lpsiXgCi80YA71nCi7qyvoJUOd55puGAbh1oSTYRKyAXTPkEX0zOIpjc63lJ22m91VAkiSXPrBe/U0FwYd4hFW+q0t4R4EVw/mhbsvy9qLhp6rjFlu3EjNkgnIPzhyRymrTDMMoW3iDxSlXwj71L/slTu9vdOwrLplHrg7O9P6bmPfqZMDhxBrb6/hThvgNVIoHz+5CD658Nmt3CbQLBbZs0F7BKN3SWnSwIKRD6NgKRGQKrGna3REw4i9w1OU+pKQ8xRyLltnQSI/xPqc6ys/1CO02ksvKJ2kFyafpgOvTxe05LhqJDmoKAS8YLmUrWXZ+4SSd0xuoPHNSYBkPf0BlDM+ipWTJoMKcnzKn8gax9PS4vSE+QTw3K8ext11oS17OLd456Xe/6GAaLweKqLnR/Rizsreq3VwUCcNYlWtmeNUd2BRhWI8rbp4dmAaxqzu7lr8fU4Jh+JAyXXJTXhJoRGMFeX59LX/qbP/C3lnxZLiGwAA</t>
+          <t>ChoAAB+LCAAAAAAAAAOlGdtu48b1Vwg9tUAlktLaaxuzDHSzI1SyDEmu47wUI3JssaY4Cjm0rLcUSJAiTVEUxaZIr+hTigLdLtoESHd7+Zdg7d0+9Rd65sLhRXK22i6MNefc5syZcx2jt27mgXFNotin4aOKXbMqBgld6vnh5aNKwi6q9m7lLQd1b1wSnOAIzwkDYgO4wvjgJvYfVWaMLQ5Mc7lc1paNGo0uzbpl2eY7g/7YnZE5rvphzHDokorm8l7PVXFQ25sPCMMeZlhyPqr0xr1am/huB2ADHOJLEtVaSeyHJI67IfOZT2LOGRHMSLsz+J48mFOv7dZsZK7BM8pW4geepCtQSriig23JxJ8Tp27Ze1Vrr9qwJ7Z9UG8c2Du13X3r3ZRRE6I+jtmYRNe+KwBjhucLwW7tNWzbrjfsHWRuJAJZmQEcNAy8Ebn2Y+K1SRDEW1nEVBfYdBmcejtjWsjM8SpBb67CUYQXs4nPArKdGqNBy5iHSpdMiIMOaURcsN8bqXRMlsNImXWy6AN2MvMjturg1dayTmMSDRfcSNuxOqhDQ9YMSMROF3DXxANXAITDooQg8x5kxtTxYxe+/TAhnnOBgzjPVECiMxpdxQvskmOIY5PLWIYBxR44HPNj5rtxJmANg04iugCRsHuLBt4hiFUqbkBo0b0QbMz3bVF6VZZeRCJxreKC4VLnmKXka3A0ntHlMAxW42Qau5E/JV6nlVJvxCEekYq7ncSMzkGLDIQkLAdZwT+IwDIYdYjrz3FwEoAVY6cBUgoA1EwYvfBZmwbJPNTmLEHRGZxoQm70CfUaDeF2Q250GvbClF6aeSOqyDCiS73nOkIYIQduxm7qZOuIMnEHYOn1rWPEjfBTHvoBFIj8XeSgRa8YzwhhG11CYhDPhYe85DitFd8TmRkEgWeCewPUsff3H1YtG34mlnUgfmBnjUbd0BMfUGB2q3adJ+2MLkWi42Q+nEIIX4szOTbgSiAEpwhaAQ6vAHrms9lxM9V+AwbJM99Lv45DEKyLAK8EWNslD0O90A0Sj8gc0AsvhFNy3RT1vXi0BupDWDsIh6vJasFzgXkPRYdc4CSA8sQgi1xmCaIERs34qkyTB6HTKEjv2OHFP4bq73rzmgv5kVe4mkvnHGBC0T0bIzNPz5O8S7rhZR+HlwmkUW3HMlx7GM8AkwiHMT+OzpolZ9tMhNJ7kdnckZc1TIQ7ycuigEVmiQ5NyHxBIxwMwDD+YRKKiqlKAlh4gNlMrSB6A+KmRjYzVs1V1CxV/HVkIgzlMXiKV9FdAgoifhbZZ+RCNQMifswB9aDU48CfRgUv24iDG8sKYOpv/HRbFsP0EqDZhATzXbLiHUi2UHDutI6dIsQKtUElZzx6sFffsRp1SN58jcSRRwQHRhfaUEaMXnhNYjYHtgNjRGLfgy8fBwfG22RKfIh6YSMVd1tz5/nQYUTeS6CdXglVmqBvEVIkgJR66Yc4WCfUmIzBOSc4ClY5QnnUPnWB7u5H/7r99dMXzz6/+/jxqy8/+M/ff/niHz+9ffIhfNz95a+3n/xCHlMSowmeBkQoNGnt7VmNB+BoGoRUfoAi7yUuE7Dzc1H09Rqp5lUs2t1e+6jfEglFA1N23k8kPBj6eEWTbDmWhxAbiSs1U0+QJM4kTVBqXcB2CK/0Mgp5n3pNitR5/H2M0hYvn3/+8vmf7uVWBivUnh1eU15fe2x7jU7XHt7/y/YunS4eVK2dar2eIy7RoBEMSdDNaTv1PKdhW/tWvWHZOpl72pE3EZVRStIEX5olPglq0yRk0Uq7QH6dIoXjTyBENFqGQm6hXPTLH7/68+MClbKughSlgHI0iaQ3melCiD4eTYzx8HTU7hqT7pj7SYbL0Unh30CsdtfxVHCqMExw8B0YjflgbFSg6asY9MIg2J0ZK4jEXBwWnG0TVG70hiLLWh5FNFnIG8kxZNANlDqbbOTYkGsETthzLelkqA3kUtfbv32xiUEdRLnZaegzPePlYaiAkaAcXkXtZ/988dVHL549u3v6s9uvfliQoPbRow/4OURTfqndHlKeqjclCDobC2NeWd/P1RcF5J3jCfVDFjv2rmga1QoBq82lid+oN4eSJwQLewG8BEFv47h7w1RgO8fILAJAzwWGakuz9loDZA7P7Prv3/z27ldf3H369NVHf7z9+A+3n3z68vnvXj35vYy6u8dP737yRGX5ciEQuvCmXXaBhhgBXYNHo8Frt/H1+z83QsoM6DmMRGSkr9//LCeMKyq6k0wy9HRakaIKa6R5Zs5n5FTROhT4NItsANq8hDU0hSpidOG72SbvVrkoHncC8a3epJrExKDQTn0bTlIkzpj/Vz7FIkvqyUOrbtcVVmrDjzDFcc70RwGdQpORIsSMVSIpcH0zQ0Yr9jvqD1vNfkYilRhGHoxkFh8U+QdKe0peUnpxutKTRQYBLDR+bhLwsXiNbB2lJefSmKnmy4umx9OfY1ligCvWxwIFjOhRJBuiUL1XjpMFdMPpK8T9ePE0k2uAj2Wvmm+Js3WvU8TDOoeFQlhEc4DAi9SkUDJN9WI+ysp29pibJlsCrvCcA+ZQT5Ky07qGvjIyed7pRhGNNiafDJOSDaCThoxiZhbXNOJOZdftZXeVAtKEpz/k6KdOSDskIGy79zoz4x7Q6zfmhbvflrUXDwNPGXO70UObJROQf7TkjvL/vllKZ2tGETRW/I1j60fGdHIdwcC7pTbyKIKRj4Cwu3oFPPSjmL3DM4H6kpBzDTmXHaogkR9ife7syzXgzbxws6BlGrlMvhzToO/P/S2nQisN76IQMOViITu43naOwivLMbmB/jInAXLi9AdQNfjEs5006a+QSjU/f6uJ/csZ21axh1NMPDK1qu6U1KsPPGuvuk9Io2rb8D9263XL2uEPPUo4JA6fLLfcxEwvLPuLjvNf7/yhVgoaAAA=</t>
         </r>
       </text>
     </comment>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="###0.000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -84,10 +84,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -383,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,7 +396,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
+        <v>3271.34</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>6384.48</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>7111.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>8354.02</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>10540.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>16421.36</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>22352.63</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>29205.22</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
         <v>37962.97</v>
       </c>
     </row>
@@ -405,37 +444,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>1</InitCol>
-          <EndRow>2</EndRow>
-          <EndCol>1</EndCol>
-          <Name>Real Estate Investment: Residential: Hebei</Name>
-          <DisplayName>Real Estate Investment: Residential: Hebei</DisplayName>
-          <SeriesId>310902301</SeriesId>
-          <Code>SR4825032</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2DB6270-FB91-42B4-88B9-90DA3794DCF8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>